--- a/data/arTable_Template.xlsx
+++ b/data/arTable_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81904\Downloads\kristina\kristina_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC3E15-4838-4E96-881A-4C76FBE6BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B102F-86BF-4B72-9532-7D914B318612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" xr2:uid="{6B8EB2DC-839C-4FFD-8526-5151CA8A5A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>管理No.</t>
     <rPh sb="0" eb="2">
@@ -119,25 +119,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>半額前払、残り4ヵ月後払い</t>
-    <rPh sb="0" eb="2">
-      <t>ハンガク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>マエバラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲツゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会社名：KSユーラシア㈱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -259,6 +240,23 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100%翌々月22日払い</t>
+    <rPh sb="4" eb="7">
+      <t>ヨクヨクゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半額前払、残り3ヵ月後払い</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -875,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919267A4-C0F9-4359-8A62-6735E9AEDDF5}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -892,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -904,7 +902,7 @@
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -951,13 +949,13 @@
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="7" t="e">
         <f>#REF!</f>
@@ -973,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="e">
         <f>#REF!</f>
@@ -982,10 +980,10 @@
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="e">
@@ -995,23 +993,25 @@
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="7" t="e">
         <f>#REF!</f>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="e">
@@ -1033,10 +1033,10 @@
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="e">
@@ -1046,10 +1046,10 @@
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="e">
@@ -1059,10 +1059,10 @@
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="7" t="e">
